--- a/security/checklist_security-lab3.xlsx
+++ b/security/checklist_security-lab3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Tên project</t>
   </si>
@@ -123,6 +123,12 @@
 - Trên URL, ID có mã hóa</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Hacked</t>
+  </si>
+  <si>
     <t>Câu 2:
 - Màn hình update
 - Trên URL, ID có mã hóa
@@ -130,10 +136,13 @@
 Mong đợi: không có lỗi xảy ra (hiển thị message không tìm thấy hoặc 1 xử lý khác)</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (      ) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -163,6 +172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -200,6 +215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -237,6 +258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -346,6 +373,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (ABCDE) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -702,16 +735,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1875,12 +1908,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE898"/>
+  <dimension ref="A1:AF898"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
@@ -1980,7 +2013,7 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="24" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 8</v>
+        <v>Point: 6</v>
       </c>
       <c r="AE3" s="20"/>
     </row>
@@ -2073,7 +2106,7 @@
       </c>
       <c r="AE5" s="20"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="116" customHeight="1" spans="2:31">
+    <row r="6" s="2" customFormat="1" ht="116" customHeight="1" spans="2:32">
       <c r="B6" s="14">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>2</v>
@@ -2108,24 +2141,27 @@
         <v>24</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="25">
         <f>IF(Z6="OK",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="27"/>
-    </row>
-    <row r="7" ht="81" customHeight="1" spans="2:31">
+      <c r="AF6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="81" customHeight="1" spans="2:32">
       <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2154,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA7" s="26"/>
       <c r="AB7" s="26"/>
@@ -2164,6 +2200,9 @@
         <v>0</v>
       </c>
       <c r="AE7" s="20"/>
+      <c r="AF7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" ht="122" customHeight="1" spans="2:31">
       <c r="B8" s="15">
@@ -2171,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2216,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2262,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2308,7 +2347,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2354,7 +2393,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2400,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2429,14 +2468,14 @@
         <v>24</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="20"/>
     </row>
